--- a/bulksender_example_erc20.xlsx
+++ b/bulksender_example_erc20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16480"/>
+    <workbookView windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>Address</t>
   </si>
@@ -22,13 +22,25 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>Token</t>
+  </si>
+  <si>
     <t>0x81dead59e3a0423bed9ab5869901e41517458c1e</t>
+  </si>
+  <si>
+    <t>USDT</t>
   </si>
   <si>
     <t>0x508e0be69f49D32335bC37d5Fb84579077da9e4d</t>
   </si>
   <si>
+    <t>ETH</t>
+  </si>
+  <si>
     <t>0x775E3Dd77ca6c6E4493A28B6d7B65439832688A3</t>
+  </si>
+  <si>
+    <t>USDC</t>
   </si>
   <si>
     <t>0xaB19EE9275bFfD23c75ad467cb98dE4b83747194</t>
@@ -42,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,9 +89,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,9 +121,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,17 +143,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,81 +191,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,37 +241,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,109 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,11 +429,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,17 +459,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +488,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,138 +526,118 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,25 +646,25 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,64 +997,82 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
     <col min="2" max="2" width="25.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>20</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>145550</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1000.5</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1.5</v>
       </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0.05</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
